--- a/RBFS_H2.xlsx
+++ b/RBFS_H2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheUS\OneDrive\Documents\GitHub\ProgrammingAssignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\ProgrammingAssignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3039E831-3343-4B64-9257-7307E8140211}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614F6A23-6BB5-46A6-AD7E-5DF6915F166E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="2850" windowWidth="11130" windowHeight="11385" xr2:uid="{3BB9E6CF-8BA1-42BF-B624-EDBF17894BDE}"/>
+    <workbookView xWindow="3534" yWindow="30" windowWidth="14286" windowHeight="9108" xr2:uid="{3BB9E6CF-8BA1-42BF-B624-EDBF17894BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>Heuristic Time</t>
   </si>
@@ -61,6 +63,24 @@
   </si>
   <si>
     <t>M = 50</t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
+  <si>
+    <t>M=10</t>
+  </si>
+  <si>
+    <t>M=20</t>
+  </si>
+  <si>
+    <t>M=30</t>
+  </si>
+  <si>
+    <t>M=40</t>
+  </si>
+  <si>
+    <t>M=50</t>
   </si>
 </sst>
 </file>
@@ -412,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC8FF40-2B27-480F-9346-3FC3F44BF14A}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,8 +456,26 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -453,8 +491,31 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(A3:A12)</f>
+        <v>12.621199999999977</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(B3:B12)</f>
+        <v>21.826000000000004</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(C3:C12)</f>
+        <v>105</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(D3:D12)</f>
+        <v>6.7</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(E3:E12)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>16.8279999999999</v>
       </c>
@@ -470,8 +531,31 @@
       <c r="E3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(A14:A23)</f>
+        <v>16.617299999999961</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE(B14:B23)</f>
+        <v>28.648299999999999</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(C14:C23)</f>
+        <v>137.9</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE(D14:D23)</f>
+        <v>7.4</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE(E14:E23)</f>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>32.356000000000002</v>
       </c>
@@ -487,8 +571,31 @@
       <c r="E4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGE(A25:A34)</f>
+        <v>19.793999999999961</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:L4" si="0">AVERAGE(B25:B34)</f>
+        <v>36.577700000000007</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>185.1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4.1399999999999997</v>
       </c>
@@ -504,8 +611,31 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE(A36:A45)</f>
+        <v>11.482999999999972</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:L5" si="1">AVERAGE(B36:B45)</f>
+        <v>20.6602</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>104.1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>7.3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>30.8569999999999</v>
       </c>
@@ -521,8 +651,31 @@
       <c r="E6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGE(A47:A56)</f>
+        <v>24.719899999999971</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:L6" si="2">AVERAGE(B47:B56)</f>
+        <v>47.291600000000003</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>228.2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>8.9</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>21.66</v>
       </c>
@@ -539,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>8.8109999999999999</v>
       </c>
@@ -556,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>0</v>
       </c>
@@ -573,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>5.0049999999999999</v>
       </c>
@@ -590,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>2.944</v>
       </c>
@@ -607,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>3.61099999999999</v>
       </c>
@@ -624,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -641,7 +794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>18.337</v>
       </c>
@@ -658,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>0.997</v>
       </c>
@@ -675,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>23.97</v>
       </c>
@@ -692,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>24.994999999999902</v>
       </c>
@@ -709,7 +862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>16.161999999999999</v>
       </c>
@@ -726,7 +879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>4.9859999999999998</v>
       </c>
@@ -743,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>16.916999999999899</v>
       </c>
@@ -760,7 +913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>17.950999999999901</v>
       </c>
@@ -777,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>20.942999999999898</v>
       </c>
@@ -794,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>20.914999999999999</v>
       </c>
@@ -811,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -828,7 +981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>12.995999999999899</v>
       </c>
@@ -845,7 +998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>12.014999999999899</v>
       </c>
@@ -862,7 +1015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>25.199000000000002</v>
       </c>
@@ -879,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>13.321</v>
       </c>
@@ -896,7 +1049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>26.940999999999899</v>
       </c>
@@ -913,7 +1066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>27.614999999999998</v>
       </c>
@@ -930,7 +1083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>21.939</v>
       </c>
@@ -947,7 +1100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>13.007</v>
       </c>
@@ -964,7 +1117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>24.982999999999901</v>
       </c>
@@ -981,7 +1134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>19.923999999999999</v>
       </c>
@@ -998,7 +1151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1015,7 +1168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1032,7 +1185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>0.998</v>
       </c>
@@ -1049,7 +1202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>17.960999999999899</v>
       </c>
@@ -1066,7 +1219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>14.009</v>
       </c>
@@ -1083,7 +1236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>13.924999999999899</v>
       </c>
@@ -1100,7 +1253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>10.946</v>
       </c>
@@ -1117,7 +1270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>13.960999999999901</v>
       </c>
@@ -1134,7 +1287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>10.000999999999999</v>
       </c>
@@ -1151,7 +1304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>23.004000000000001</v>
       </c>
@@ -1168,7 +1321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>10.025</v>
       </c>
@@ -1185,7 +1338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1202,7 +1355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>11.929</v>
       </c>
@@ -1219,7 +1372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>20.884</v>
       </c>
@@ -1236,7 +1389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>17.936</v>
       </c>
@@ -1253,7 +1406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>57.943999999999903</v>
       </c>
@@ -1270,7 +1423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>11.911</v>
       </c>
@@ -1287,7 +1440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>26.899999999999899</v>
       </c>
@@ -1304,7 +1457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>24.946999999999999</v>
       </c>
@@ -1321,7 +1474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>0</v>
       </c>
@@ -1338,7 +1491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>45.858999999999902</v>
       </c>
@@ -1355,7 +1508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>28.888999999999999</v>
       </c>
